--- a/BIANCA_Quality_Check_YS_15.7.19.xlsx
+++ b/BIANCA_Quality_Check_YS_15.7.19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssufsaleh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Documents/GitHub/SVD_Joao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFC215-5741-F449-BC71-BFC5BC77B3AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA060652-652F-FE4B-859C-DB06AC49771E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25720" windowHeight="26700" xr2:uid="{5296D11B-9B8A-0C4D-9EE6-51541B46208C}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t xml:space="preserve">sub optimal capture </t>
+  </si>
+  <si>
+    <t>Joao rating</t>
+  </si>
+  <si>
+    <t>to fix</t>
   </si>
 </sst>
 </file>
@@ -294,12 +294,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -329,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,6 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB887609-4478-7F49-B287-7604DB7098D1}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +684,7 @@
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -691,8 +698,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -705,8 +715,11 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -719,8 +732,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -733,8 +749,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -747,8 +766,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -761,8 +783,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -775,8 +800,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -789,8 +817,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -803,8 +834,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -817,112 +851,154 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B13">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B14">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B16">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B19">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
@@ -935,32 +1011,44 @@
       <c r="D24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B25">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B26">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -973,168 +1061,227 @@
       <c r="D28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B32">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B33">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B34">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B36">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B38">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B39">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B40">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B45">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B46">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B47">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B48">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
@@ -1144,133 +1291,184 @@
       <c r="C49" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B50">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B53">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B54">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B55">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B56">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B58">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B59">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B60">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B61">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B62">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B63">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B64">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B65">
         <v>0.87</v>
+      </c>
+      <c r="F65">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/BIANCA_Quality_Check_YS_15.7.19.xlsx
+++ b/BIANCA_Quality_Check_YS_15.7.19.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Documents/GitHub/SVD_Joao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssufsaleh/Documents/GitHub/SVD_Joao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA060652-652F-FE4B-859C-DB06AC49771E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DA2E6-95FB-5F43-A01A-22D40B56973A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25720" windowHeight="26700" xr2:uid="{5296D11B-9B8A-0C4D-9EE6-51541B46208C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -271,6 +277,9 @@
   </si>
   <si>
     <t>to fix</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -670,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB887609-4478-7F49-B287-7604DB7098D1}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +693,7 @@
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -701,8 +710,11 @@
       <c r="F1" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,8 +730,12 @@
       <c r="F2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>B2-F2</f>
+        <v>-0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -735,8 +751,12 @@
       <c r="F3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G65" si="0">B3-F3</f>
+        <v>-0.12400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -752,8 +772,12 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -769,8 +793,12 @@
       <c r="F5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -786,8 +814,12 @@
       <c r="F6">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -803,8 +835,12 @@
       <c r="F7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -820,8 +856,12 @@
       <c r="F8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -837,8 +877,12 @@
       <c r="F9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -854,8 +898,12 @@
       <c r="F10">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>77</v>
       </c>
@@ -865,8 +913,12 @@
       <c r="F11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
@@ -876,8 +928,12 @@
       <c r="F12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -887,8 +943,12 @@
       <c r="F13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
@@ -898,8 +958,12 @@
       <c r="F14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -909,8 +973,12 @@
       <c r="F15">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -920,8 +988,12 @@
       <c r="F16">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -931,8 +1003,12 @@
       <c r="F17">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>70</v>
       </c>
@@ -942,8 +1018,12 @@
       <c r="F18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
@@ -953,8 +1033,12 @@
       <c r="F19">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>68</v>
       </c>
@@ -964,8 +1048,12 @@
       <c r="F20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
@@ -975,8 +1063,12 @@
       <c r="F21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
@@ -986,8 +1078,12 @@
       <c r="F22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
@@ -997,8 +1093,12 @@
       <c r="F23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
@@ -1014,8 +1114,12 @@
       <c r="F24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>61</v>
       </c>
@@ -1025,8 +1129,12 @@
       <c r="F25">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
@@ -1036,8 +1144,12 @@
       <c r="F26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -1047,8 +1159,12 @@
       <c r="F27">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -1064,8 +1180,12 @@
       <c r="F28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -1075,8 +1195,12 @@
       <c r="F29">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
@@ -1086,8 +1210,12 @@
       <c r="F30">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>54</v>
       </c>
@@ -1097,8 +1225,12 @@
       <c r="F31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
@@ -1106,8 +1238,12 @@
         <v>0.9</v>
       </c>
       <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>52</v>
       </c>
@@ -1117,8 +1253,12 @@
       <c r="F33">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>51</v>
       </c>
@@ -1128,8 +1268,12 @@
       <c r="F34">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -1139,8 +1283,12 @@
       <c r="F35">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>49</v>
       </c>
@@ -1150,8 +1298,12 @@
       <c r="F36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
@@ -1159,8 +1311,12 @@
         <v>0.2</v>
       </c>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
@@ -1170,8 +1326,12 @@
       <c r="F38">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
@@ -1181,8 +1341,12 @@
       <c r="F39">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>45</v>
       </c>
@@ -1192,8 +1356,12 @@
       <c r="F40">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
@@ -1203,8 +1371,12 @@
       <c r="F41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1214,8 +1386,12 @@
       <c r="F42">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1225,8 +1401,12 @@
       <c r="F43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -1236,8 +1416,12 @@
       <c r="F44">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>40</v>
       </c>
@@ -1247,8 +1431,12 @@
       <c r="F45">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
@@ -1258,8 +1446,12 @@
       <c r="F46">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>38</v>
       </c>
@@ -1269,8 +1461,12 @@
       <c r="F47">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
@@ -1280,8 +1476,12 @@
       <c r="F48">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>36</v>
       </c>
@@ -1294,8 +1494,12 @@
       <c r="F49">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>35</v>
       </c>
@@ -1305,8 +1509,12 @@
       <c r="F50">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>34</v>
       </c>
@@ -1316,8 +1524,12 @@
       <c r="F51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>32</v>
       </c>
@@ -1327,8 +1539,12 @@
       <c r="F52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>31</v>
       </c>
@@ -1338,8 +1554,12 @@
       <c r="F53">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>30</v>
       </c>
@@ -1349,8 +1569,12 @@
       <c r="F54">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
@@ -1360,8 +1584,12 @@
       <c r="F55">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>28</v>
       </c>
@@ -1371,8 +1599,12 @@
       <c r="F56">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>27</v>
       </c>
@@ -1382,8 +1614,12 @@
       <c r="F57">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>26</v>
       </c>
@@ -1393,8 +1629,12 @@
       <c r="F58">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>25</v>
       </c>
@@ -1404,8 +1644,12 @@
       <c r="F59">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>24</v>
       </c>
@@ -1415,8 +1659,12 @@
       <c r="F60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>23</v>
       </c>
@@ -1426,8 +1674,12 @@
       <c r="F61">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>22</v>
       </c>
@@ -1437,8 +1689,12 @@
       <c r="F62">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
@@ -1448,8 +1704,12 @@
       <c r="F63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>20</v>
       </c>
@@ -1459,8 +1719,12 @@
       <c r="F64">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>19</v>
       </c>
@@ -1469,6 +1733,10 @@
       </c>
       <c r="F65">
         <v>0.4</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
